--- a/fmb2xlsx.xlsx
+++ b/fmb2xlsx.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sakina\Desktop\harsha-html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{62DFE503-D9EE-4BF5-AF87-7606C6D74157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACFDE07-DB6B-47E0-B4D5-3079D2B51E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25680" yWindow="3120" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">received from </t>
   </si>
@@ -48,12 +48,15 @@
   </si>
   <si>
     <t xml:space="preserve"> sakina </t>
+  </si>
+  <si>
+    <t>arwa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,11 +401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +438,15 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
